--- a/frontend/tp21-main/public/exportFiles/zh/Early Childhood Education (0–5 years) Checklist - CHN.xlsx
+++ b/frontend/tp21-main/public/exportFiles/zh/Early Childhood Education (0–5 years) Checklist - CHN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\exportFiles\exportFiles\zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04745254-6F5E-4B54-8115-FEDF2E778C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9DB3F-18AA-4262-B6B9-C638B57139E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,8 +232,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -610,13 +610,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{6D45B3E6-AD51-470E-871E-3D9EC02C46E9}">
-      <formula1>"Ready,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{0438722B-C37D-4F3C-ACD4-9878D1C1CA41}">
+      <formula1>"√,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" xr:uid="{CFBCBBB7-AB10-4D0B-A5D9-AFC15E9481BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>